--- a/qa/data/data.xlsx
+++ b/qa/data/data.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D6619E-544A-4B48-A472-FB6C17AF796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="guide" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,11 +270,228 @@
     <t>JackRabbit 이라는 데이터 저장 툴을 사용중에 발생한 오류인데, 원인을 찾아줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>logback.xml 에 아래와 같이 추가한다.
+&lt;logger name="com.nice.ndm.ml" level="DEBUG" additivity="false"&gt;
+   &lt;appender-ref ref="fileAppenderAll"/&gt;
+&lt;/logger&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명이 com.nice.ndm.ml.GBMModel_23123u9o24 인 클래스의 로그 레벨을 디버그로 변경하려고 하는데, 설정 방법을 알려줘
+그리고, 기존 로그파일에 추가되지 않도록 설정 방법을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-27 15:16:15.015 [ERROR] [org.apache.catalina.core.ContainerBase.[Tomcat].[localhost]: log:175] Exception Processing /DataModeler/validate
+java. lang.RuntimeException: org.apache. tomcat.util.buf. ByteChunk$BufferOverflowException: Buffer overflow and no sink is set, limit [4,096] and buffer length [4,096]
+at org.keycloak.adapters. tomcat. Catal inaAdapterSess ionStore. saveRequest(Catal inaAdapterSessionStore. java: 42)
+at org.keycloak.adapters.OAuthRequestAuthenticator$1.challenge(0AuthRequestAuthenticator. java:226)
+at org.keycloak.adapters. tomcat. AbstractKeycloakAuthenticatorValve. authenticateInternal(AbstractKeycloakAuthent icatorValve. java: 212)
+at org.keycloak.adapters. tomcat.KeycloakAuthenticatorValve.authent icate(KeycloakAuthenticatorVaIve.java:50)
+at org.keycloak.adapters. tomcat.KeycloakAuthenticatorValve.doAuthent icate(KeycloakAuthenticatorVaIve.java:57)
+at org.apache.catalina.authenticator.AuthenticatorBase.invoke(AuthenticatorBase. java:562)
+at org.keycloak.adapters.tomcat.AbstractKeycloakAuthent icator Valve. invoke(AbstractKeycloakAuthent icatorValve. java: 181)
+at org.apache.catalina.core.StandardHostValve. invoke(StandardHostValve. java: 130)
+at org.apache.catalina.valves.ErrorReportValve. invoke(ErrorReportValve. java: 93)
+at org.apache.catalina.core.StandardEng ineVaIve. invoke(StandardEng ineValve. java:74)
+at org.apache.catalina.connector.CoyoteAdapter.service(CoyoteAdapter. java:342)
+at org.apache.coyote.http11.Http11Processor.service(Http11Processor. java: 390)
+at org.apache. coyote. AbstractProcessorLight.process(AbstractProcessorLight. java:63)
+at org.apache. coyote. AbstractProtocol $ConnectionHandler .process(AbstractProtocol. java:928)
+at org.apache.tomcat.util.net.NioEndpoint$SocketProcessor.doRun(NioEndpoint. java: 1794)
+at org.apache. tomcat.utiI.net. SocketProcessorBase. run(SocketProcessorBase. java:52)
+at org.apache. tomcat.uti l. threads. ThreadPoo|Executor .runWorker(ThreadPoolExecutor . java: 1191)
+at org.apache. tomcat.ut i l . threads. ThreadPoolExecutor $Worker . run(ThreadPoolExecutor . java:659)
+at org.apache. tomcat.ut i l. threads, TaskThread$Wrapp ingRunnable. run(TaskThread. java:61)
+at java.lang.Thread.run(Thread. java: 750)
+Caused by: org.apache. tomcat.util.buf.ByteChunk$BufferOverflowException: Buffer overflow and no sink is set, limit [4,096] and buffer length [4,096]
+at org.apache.tomcat.util.buf.ByteChunk.f lushBuffer(ByteChunk.java:501)
+at org.apache.tomcat.util.buf.ByteChunk.append(ByteChunk.java:303)
+at org.apache.catalina.authenticator .FormAuthenticator. saveRequest(FormAuthenticator.java:704)
+at org.keycloak.adapters.tomcat.AbstractKeycloakAuthenticatorValve.keycloakSaveRequest(AbstractKeycloakAuthenticatorValve.java:233)
+at org.keycloak.adapters.tomcat. Catal inaAdapterSess ionStore. saveRequest(Catal inaAdapterSessionStore.java: 40)
+19 common frames omitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot 어플리케이션에서 Keycloak 과의 통신하여 로그인을 하는데 오류가 발생했어.
+길이 설정 문제인거 같은데 정확한 원인을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application.properties 파일에서,
+server.tomcat.max-http-header-size=65536
+로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error creating bean with name 'reportDataService': Injection of autowired dependencies failed; nested exception is java. lang. IllegalArgumentException: Could not resolve placeholder
+reportdata.dir.path' in value "${reportdata.dir.path}"
+at org.springframework.beans. factory.support.ConstructorResolver.createArgumentArray(ConstructorResolver.java:801)
+at org.springframework.beans. factory.support.ConstructorResolver. autowireConstructor(ConstructorResolver. java:224)
+at org.springframework.beans. factory. support. AbstractAutowireCapableBeanFactory.autowireConstructor(AbstractAutowireCapableBeanFactory. java: 1372)
+at org.springframework.beans. factory. support.AbstractAutowireCapableBeanFactory.createBean Instance(AbstractAutowireCapableBeanFactory. java: 1222)
+at org.springframework.beans. factory.support.AbstractAutowireCapableBeanFactory. doCreateBean(AbstractAutowireCapableBeanFactory. java:582)
+at org.springframework.beans. factory.support.AbstractAutowireCapableBeanFactory.createBean(AbstractAutowi reCapab|eBeanFactory. java:542)
+at org.springframework.beans. factory. support. AbstractBeanFactory. lambda$doGetBean$0(AbstractBeanFactory. java:335)
+at org.springframework.beans. factory.support.DefaultSingletonBeanRegistry.getSingleton(DefauItSingletonBeanReg istry. java:234)
+at org.springframework.beans. factory.support.AbstractBeanFactory.doGetBean(AbstractBeanFactory. java:333)
+at org.springframework.beans. factory.support. AbstractBeanFactory.getBean(AbstractBeanFactory. java:208)
+at org.springframework.beans. factory.support. DefaultListableBeanFactory.preInstantiateSingletons(DefaultL istableBeanFactory, java:955)
+at org.springframework.context.support.AbstractApplicationContext. finishBeanFactoryInitial ization(AbstractApp| icat ionContext. java:929)
+at org.springframework.context.support.AbstractApplicationContext.refresh(AbstractApplicationContext. java:591)
+at org.springframework.boot. web.servlet.context.ServletWebServerApplicat ionContext. refresh(ServletWebServer Appl icat ionContext. java:147)
+at org.springframework.boot. Spr ingApplication. refresh(Spr ingAppl icat ion, java: 732)
+at org.springframework.boot. SpringApplication. refreshContext(Spr ingAppl icat ion. java: 409)
+at org.springframework.boot. Spr ingApplication. run(Spr ingAppl ication. java: 308)
+at org.springframework.boot.SpringApplication. run(Spr ingAppl ication. java: 1300)
+at org.springframework.boot.SpringApplication.run(Spr ingAppl icat ion. java: 1289)
+at com.nice.mealwb.MealWbApp| icat ion. ma in(MealWbAppl icat ion. java:32)
+at sun.reflect.Nat iveMethodAccessor Impl . invoke0(Nat ive Method)
+at sun.reflect.Nat iveMethodAccessor Impl . invoke(Nat i veMethodAccessor Impl . java:62)
+at sun.reflect.Delegat ingMethodAccessor Impl . invoke(Delegat ingMethodAccessor Impl . java: 43)
+at java. lang.ref lect.Method. invoke(Method. java: 498)
+at org.springframework.boot. loader.Ma inMethodRunner. run(Ma inMethodRunner . java: 49)
+at org.springframework. boot. loader.Launcher . launch(Launcher . java: 108)
+at org.springframework.boot. loader .Launcher . launch(Launcher. java:58)
+at org.springframework.boot. loader . JarLauncher .main(JarLauncher . java:65)
+Caused by: org.spr ingframework.beans. factory.BeanCreationException: Error creating bean with name 'reportDataService': Injection of autowired dependencies failed; nested exception is java. lang. IllegalAr
+gumentException: Could not resolve placeholder 'reportdata.dir.path' in value "${reportdata.dir.path}"
+at org.springframework.beans. factory. annotation. AutowiredAnnotat ionBeanPostProcessor . postProcessProperties(AutowiredAnnotat i onBeanPostProcessor. java: 414)
+at org.spr ingframework.beans. factory. support. AbstractAutowireCapableBeanFactory. populateBean(AbstractAutowireCapableBeanFactory, java: 1431)
+at org.springframework.beans. factory.support. AbstractAutowireCapableBeanFactory. doCreateBean(AbstractAutowireCapab|eBeanFactory, java:619)
+at org.springframework.beans. factory. support.AbstractAutowireCapableBeanFactory.createBean(AbstractAutowireCapableBeanFactory. java:542)
+at org.spr ingframework.beans. factory. support. AbstractBeanFactory. lambda$doGetBean$0(AbstractBeanFactory. java:335)
+at org.spr ingframework.beans. factory. support.DefaultSingletonBeanRegistry.getSingleton(DefaultSingletonBeanReg istry. java:234)
+at org.springframework. beans. factory.support.AbstractBeanFactory.doGetBean(AbstractBeanFactory. java:333)
+at org.springframework. beans. factory. support. AbstractBeanFactory.getBean(AbstractBeanFactory. java:208)
+at org.springframework. beans, factory.conf ig.DependencyDescr iptor .resol veCandi date(DependencyDescr iptor . java:276)
+at org.springframework. beans. factory.support.DefaultListableBeanFactory. doReso | veDependency(DefauItListableBeanFactory. java: 1391)
+at org.spr ingframework.beans. factory. support.DefaultListableBeanFactory. resol veDependency(DefauItL istableBeanFactory. java: 1311)
+at org.springframework.beans. factory.support.ConstructorResolver.reso|veAutowiredArgument(ConstructorResolver. java:911)
+at org.springframework.beans. factory.support.ConstructorResolver . createArgumentArray(ConstructorResolver . java: 788)
+27 common frames omitted
+Caused by: java. lang. IllegalArgumentException: Could not resolve placeholder 'reportdata.dir.path' in value "${reportdata.dir.path}"
+at org.springframework.uti | .PropertyPlaceholderHelper .parseStr ingValue(PropertyPlaceholderHelper. java: 180)
+at org.springframework.util.PropertyPlaceholderHelper.replacePlaceholders(PropertyPlaceholderHelper. java:126)
+at org.springframework. core.env.AbstractPropertyResolver . doResolvePlaceholders(AbstractPropertyResolver. java:239)
+at org.springframework. core.env.AbstractPropertyResolver . resol veRequiredPlaceholders(AbstractPropertyResolver, java:210)
+at org.springframework.context.support.PropertySourcesPlacehol derConf igurer . lambdaSprocessPropert ies$0(PropertySourcesPlaceholderConfigurer. java:191)
+at org.springframework.beans. factory.support.AbstractBeanFactory.resol veEmbeddedValue(AbstractBeanFactory. java:936)
+at org.springframework. beans. factory.support. DefaultListableBeanFactory. doResol veDependency(DefaultL istableBeanFactory, java: 1332)
+factory.support.DefaultListableBeanFactory.resolveDependency(DefaultL istableBeanFactory. java: 1311)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appplication.properties 에 reportdata.dir.path 값이 없어 발생한 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring boot 어플리케이션을 기동중에 오류가 발생하여 종료되었는데, 원인을 파악해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-05-10 10:14:30.030 [ERROR] [com.nice.mealwb.Globa|ExceptionHandler:handleRuntimeException: 47] org.springframework.dao. IncorrectResultSizeDataAccessException: query did not return a unique result: 2; neste
+d exception is javax.persistence.NonUhiqueResultException: query did not return a unique result: 2
+at org.springframework.orm.jpa.EntityManagerFactoryUt i Is.convertJpaAccessExcept ion |fPoss ible(Ent ityManagerFactoryUti ls.java:385)
+at org.springframework.orm. jpa.vendor.HibernateJpaDialect.translateExceptionIfPoss ible(HibernateJpaDialect. java:235)
+at org.springframework.orm. jpa.AbstractEntityManagerFactoryBean, translateExcept ion|fPoss ible(AbstractEnt i tyManagerFactoryBean. java:551)
+at org.springframework.dao. support.Cha inedPersistenceExcept i on Translator. trans lateExcept ionIfPoss ible(Cha inedPers istenceExcept ion Trans lator . java:61)
+at org.springframework.dao.support.DataAccessUti Is.translatelfNecessary(DataAccessUt i Is. java: 243)
+at org.springfranework.dao.support.PersistenceExcept ionTrans lat ion Interceptor . invoke(PersistenceExcept i on Translation Interceptor . java: 152)
+at org.springfranework.aop.franework.Ref lect iveMethod Invocat ion. proceed(Ref lect i veMethod Invocat ion. java: 186)
+at org.springframework.data.jpa.repository.support.CrudMethodMetadataPostProcessor$CrudMethodMetadataPopulat ingMethodInterceptor. invoke(CrudMethodMetadataPostProcessor. java:145)
+at org.springframework.aop. framework.Ref lect iveMethod Invocat i on. proceed(Ref lect i veMethod Invocat ion. java: 186)
+at org.spr ingframework.aop. interceptor .ExposeInvocat ion Interceptor. invoke(ExposeInvocat ion Interceptor. java:97)
+at org.springframework.aop. framework.Ref lect iveMethod Invocat i on.proceed(Ref lect i veMethod Invocat ion. java: 186)
+at org.springframework.aop. framework.JdkDynami cAopProxy. invoke(JdkDynamicAopProxy. java:241)
+at com.sun.proxy.$Proxy210.findByFilePath(Unknown Source)
+at com.nice.mealwo.project.ProjectService.uploadProject(ProjectService. java:313)
+at com.nice.mealwb.project.ProjectService$SFastClassBySpr ingCGL IB$$faB845cd. invoke(&lt;generated&gt;)
+at org.springframework.cal ib.proxy.MethodProxy. invoke(MethodProxy. java:218)
+at org.springframework.aop. framework. Cal ibAopProxy$Cal ibMethodInvocat ion. invokeJoinpoint(Cal ibAopProxy. java:792)
+at org.springframework.aop. framework. Ref lect i veMethodInvocat ion . proceed(Ref lect i veMethod Invocat ion. java: 163)
+at org.springframework.aop.framework. Cal ibAopProxy$Cgl ibMethodInvocat ion.proceed(Cg | ibAopProxy. java: 762)
+at org.springframework. transaction, interceptor. Transact ion Interceptor$1 .proceedWith Invocat ion(Transact ion Interceptor . java: 123)
+at org.springframework. transaction. interceptor. Transact ionAspectSupport. invokeli thinTransact ion(Transact i onAspectSupport. java: 3BB)
+at org.springframework.transaction, interceptor. Transact ion Interceptor. invoke( Transact ion Interceptor . java: 119)
+at org.springframework.aop. framework.Ref lect iveMethod Invocat i on.proceed(Ref lect i veMethodInvocat ion, java: 186)
+at org.springframework.aop, framework.Cgl ibAopProxy$CgI ibMethodInvocat ion.proceed(Cal ibAopProxy. java: 762)
+org. spr ingframework.aop. interceptor .ExposeInvocat i on Interceptor . invoke(Expose Invocat ion Interceptor . java: 97)
+t org.spr ingframework.aop. framework. Ref lect iveMethodInvocat ion. proceed(Ref lect i veMethodInvocat i on. java: 186)
+at org.spr ingframework.aop. framework.Cal ibAopProxySCgI ibMethodInvocat ion .proceed(Cal ibAopProxy. java: 762)
+at org.springframework.aop.framework. Cal ibAopProxySDynamicAdvisedInterceptor . intercept(Cal ibAopProxy, java:707)
+at com.nice.mealwb.project.ProjectServiceSSEnhancerBySpr ingCGL|B$$b9b7c9e5.uploadProject(&lt;generated&gt;)
+at com.nice.mealwb.project.ProjectController.uploadProject(ProjectController. java: 178)
+at sun.reflect.NativeMethodAccessor Impl . invoke0(Native Method)
+at sun.reflect.NativeMethodAccessor Inpl. invoke(Nat iveMethodAccessor Inpl. java:62)
+at sun.reflect.Delegat ingMethodAccessor Impl. invoke(Delegat ingMethodAccessor Inpl . java: 43)
+at java. lang.reflect.Method. invoke(Method. java: 498
+at org.springframework.web.method.support. InvocableHandlerMethod.doInvoke( InvocableHandlerMethod, java:205)
+at org.springframework. web. method. support. InvocableHandlerMethod. invokeForRequest( InvocableHandlerMethod. java: 150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring 웹 어플리케이션에 파일 업로드 중 오류가 발생했어. 원인과 해결책은 무엇일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 이미 같은 이름의 파일 정보가 들어있어서, 원래 있던 정보를 데이터베이스에서 지워야 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aused by: org.springframework.dao.DataIntegrityViolationException: PreparedStatementCal Iback; SOL [INSERT into BATCH_JOB_EXECUTION_PARAMS(JOB_EXECUTION_ID, KEY_NAME, TYPE
+CD, STRING_VAL, DATE_VAL, LONG_VAL, DOUBLE_VAL, IDENTIFYING) values (?, ?. ?, ?, ?, ?, ?. ?)]; Value too long for column "STRING_VAL CHARACTER VARYING(250)": "10000, 1000
+1, 10002, 10003, 10004, 10005, 10006, 10007, 10008, 10009, 10010, 10011, 10012, I ... (305)"; SOL statement:
+INSERT into BATCH JOB EXECUTION PARAMS(JOB EXECUTION ID, KEY NAME, TYPE_CD, STRING_VAL, DATE_VAL, LONG_VAL, DOUBLE_VAL, IDENT IFYING) values (?, ?, ?. ?. ?, ?. ?, ?) [22001
+-214]; nested exception is org.h2.idbc.JdbcSOLDataException: Value too long for columr "STRING_VAL CHARACTER VARYING(250)": "|0000, 10001, 10002. 10003, 10004. 10005, 10006.100
+07,10008, 10009, 10010, 10011, 10012,1 ... (305)"; SOL statement:
+INSERT into BATCH_JOB_EXECUTION_PARAMS(JOB_EXECUTION_ID, KEY_NAME, TYPE_CD, STRING_VAL, DATE_VAL, LONG_VAL, DOUBLE_VAL, IDENTIFYING) values (?, ?, ?, ?, ?, ?, ?, ?) [22001
+-214]
+at org.springframework. jdbc.support. SOLErrorCodeSOLExcept ionTranslator. doTranslate(SOLErrorCodeSOLExcept i onTranslator. java: 248)
+at org.springframework. jdbc.support. AbstractFal IbackSOLExcept i onTrans lator . trans late(AbstractFal IbackSQLExcept i onTrans lator . java: 73)
+at org.springframework. jdbc.core. JdbcTemplate. trans lateExcept i on(JdbcTemplate. java: 1577)
+at org.springframework. jdbc.core. JdbcTemplate.execute(JdbcTemplate. java:669)
+at org.spr ingframework. jdbc.core. JdbcTemplate.update(JdbcTemplate. java: 962)
+at org.springframework. jdbc.core. JdbcTemplate.update(JdbcTemplate. java: 1017)
+at org.spr ingframework. jdbc.core. JdbcTemplate. update(JdbcTemplate. java: 1022)
+at org.spr ingframework. batch.core.repos itory. dao. JdbcJobExecut i onDao. insertParameter(JdbcJobExecut i onDao. java: 360)
+at org.springframework.batch.core. repository. dao. JdbcJobExecut ionDao. insertJobParameters(JdbcJobExecut i onDao. java: 328)
+at org.springframework.batch.core. repos itory. dao. JdbcJobExecut i onDao. saveJobExecut i on(JdbcJobExecut i onDao. java: 167)
+at org.springframework.batch.core.repository. support. SimpleJobRepos i tory. createJobExecut ion(SimpleJobRepos i tory. java: 158)
+at sun.reflect. Nat i veMethodAccessor Impl . invoke0(Native Method)
+at sun.reflect.Nat iveMethodAccessor Impl . invoke(Nat i veMethodAccessor Impl . java:62)
+at sun.reflect.Delegat ingMethodAccessor Imp|. invoke(Delegat ingMethodAccessor Impl . java: 43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 배치 테이블에 컬럼 길이보다 더 긴 값을 넣으려고 하여 발생.
+컬럼 길이를 늘려서 해결하거나 데이터 길이를 제한하도록 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치 작업을 수행하는데 오류가 발생하여 중단되었어.
+해결방안을 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,23 +812,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
-    <col min="3" max="3" width="33.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,13 +842,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -643,7 +862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -654,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -667,11 +886,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -684,11 +903,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -701,11 +920,11 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="306" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="297" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -718,19 +937,87 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -738,4 +1025,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA564827-24B3-4205-AFE7-75DB59F68609}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="105.25" customWidth="1"/>
+    <col min="2" max="2" width="65.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>